--- a/Code/Results/Cases/Case_5_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_172/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.486594711878297</v>
+        <v>1.353609635284556</v>
       </c>
       <c r="C2">
-        <v>0.5638222565889066</v>
+        <v>0.2539931740461725</v>
       </c>
       <c r="D2">
-        <v>0.05345118693880835</v>
+        <v>0.0262438978229369</v>
       </c>
       <c r="E2">
-        <v>0.03090658172372596</v>
+        <v>0.0859856760044746</v>
       </c>
       <c r="F2">
-        <v>0.4424102281892246</v>
+        <v>0.6471769034444748</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1930230276448768</v>
+        <v>0.5584063081530779</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3389081660075419</v>
+        <v>0.2280261146695466</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.207163823793024</v>
+        <v>2.192062247822236</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.032519539530028</v>
+        <v>1.211335594582863</v>
       </c>
       <c r="C3">
-        <v>0.5053003070600255</v>
+        <v>0.234463823412284</v>
       </c>
       <c r="D3">
-        <v>0.04798191167020605</v>
+        <v>0.02439403277239194</v>
       </c>
       <c r="E3">
-        <v>0.03172467582135585</v>
+        <v>0.08708918564981616</v>
       </c>
       <c r="F3">
-        <v>0.4119795321494379</v>
+        <v>0.647734377875544</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2031239414011274</v>
+        <v>0.5688561124922522</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2972777298549687</v>
+        <v>0.2173551475487585</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.155555011906003</v>
+        <v>2.208821801407851</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.754069101210064</v>
+        <v>1.123850794926682</v>
       </c>
       <c r="C4">
-        <v>0.4693641167864939</v>
+        <v>0.2224143719674885</v>
       </c>
       <c r="D4">
-        <v>0.04462228099334453</v>
+        <v>0.02325291009245234</v>
       </c>
       <c r="E4">
-        <v>0.03231860097914296</v>
+        <v>0.08782035368917374</v>
       </c>
       <c r="F4">
-        <v>0.3946255151348694</v>
+        <v>0.6486532643167564</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2103435523935175</v>
+        <v>0.575753142022279</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2719825437449686</v>
+        <v>0.2109065978476252</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.128282497340294</v>
+        <v>2.22106646405939</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.640646955172372</v>
+        <v>1.088170069108514</v>
       </c>
       <c r="C5">
-        <v>0.454714753135022</v>
+        <v>0.2174897871223038</v>
       </c>
       <c r="D5">
-        <v>0.04325247332697302</v>
+        <v>0.02278659348616685</v>
       </c>
       <c r="E5">
-        <v>0.03258285227396573</v>
+        <v>0.08813178773652641</v>
       </c>
       <c r="F5">
-        <v>0.3878670729170324</v>
+        <v>0.649172405027997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2135291803566943</v>
+        <v>0.5786843933572214</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2617343409822439</v>
+        <v>0.2083048654136803</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.118213182701268</v>
+        <v>2.226546576890826</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.621815110472028</v>
+        <v>1.082243568008209</v>
       </c>
       <c r="C6">
-        <v>0.4522818144118617</v>
+        <v>0.2166712077235786</v>
       </c>
       <c r="D6">
-        <v>0.04302496369125919</v>
+        <v>0.02270908442063302</v>
       </c>
       <c r="E6">
-        <v>0.03262805004106717</v>
+        <v>0.08818431501452118</v>
       </c>
       <c r="F6">
-        <v>0.386763173989209</v>
+        <v>0.6492673378069185</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2140725147290539</v>
+        <v>0.5791784054670046</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2600360456693096</v>
+        <v>0.2078744289042334</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.116602402104775</v>
+        <v>2.227486127074968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.752539304606614</v>
+        <v>1.123369710529289</v>
       </c>
       <c r="C7">
-        <v>0.4691665762094317</v>
+        <v>0.2223480148875012</v>
       </c>
       <c r="D7">
-        <v>0.04460381070251884</v>
+        <v>0.02324662640304354</v>
       </c>
       <c r="E7">
-        <v>0.03232207583756175</v>
+        <v>0.08782449923345137</v>
       </c>
       <c r="F7">
-        <v>0.3945331263518952</v>
+        <v>0.6486596802007867</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.210385544463513</v>
+        <v>0.5757921857016122</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2718440999161089</v>
+        <v>0.2108714041644646</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.12814255463222</v>
+        <v>2.221138386974729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.329930998669511</v>
+        <v>1.30458138523602</v>
       </c>
       <c r="C8">
-        <v>0.5436419638337213</v>
+        <v>0.2472717602742307</v>
       </c>
       <c r="D8">
-        <v>0.05156545902198673</v>
+        <v>0.02560718275297802</v>
       </c>
       <c r="E8">
-        <v>0.03116914447512009</v>
+        <v>0.08635503779971909</v>
       </c>
       <c r="F8">
-        <v>0.431628508245538</v>
+        <v>0.6472492646653762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1962870175002962</v>
+        <v>0.5619094616711102</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3244943474477395</v>
+        <v>0.2243253383029042</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.188411939291058</v>
+        <v>2.197434682087447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.467011470685577</v>
+        <v>1.658842196621094</v>
       </c>
       <c r="C9">
-        <v>0.689873650825632</v>
+        <v>0.2956717304811605</v>
       </c>
       <c r="D9">
-        <v>0.06522397821514403</v>
+        <v>0.03019299205465131</v>
       </c>
       <c r="E9">
-        <v>0.02967379009140636</v>
+        <v>0.08389892303558888</v>
       </c>
       <c r="F9">
-        <v>0.5159420443957003</v>
+        <v>0.6490731178696763</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1773005039679916</v>
+        <v>0.5385112720372263</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4301992535609003</v>
+        <v>0.2515272424181489</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.344789612703238</v>
+        <v>2.166508631736832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.308461280557196</v>
+        <v>1.918370087783671</v>
       </c>
       <c r="C10">
-        <v>0.7977562695086533</v>
+        <v>0.3309281768760854</v>
       </c>
       <c r="D10">
-        <v>0.0752920019401202</v>
+        <v>0.0335345537012941</v>
       </c>
       <c r="E10">
-        <v>0.02909862364597871</v>
+        <v>0.08235398010184447</v>
       </c>
       <c r="F10">
-        <v>0.5864440155764967</v>
+        <v>0.653232828331177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1694970552204857</v>
+        <v>0.5236673728869725</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5098819008686348</v>
+        <v>0.2720110635472963</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.487645912669365</v>
+        <v>2.153343904008125</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.693327408536106</v>
+        <v>2.036258689377291</v>
       </c>
       <c r="C11">
-        <v>0.8470139334692135</v>
+        <v>0.346898922706032</v>
       </c>
       <c r="D11">
-        <v>0.07988659319216396</v>
+        <v>0.03504847107448938</v>
       </c>
       <c r="E11">
-        <v>0.02896412505304724</v>
+        <v>0.08170754492397592</v>
       </c>
       <c r="F11">
-        <v>0.6207361006811425</v>
+        <v>0.6557422041478276</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1674891734306421</v>
+        <v>0.5174271531601526</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.546696782477639</v>
+        <v>0.2814379857903049</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.559833197812026</v>
+        <v>2.149445806838742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.839433628265851</v>
+        <v>2.080873502717282</v>
       </c>
       <c r="C12">
-        <v>0.8656999140569042</v>
+        <v>0.3529366265018723</v>
       </c>
       <c r="D12">
-        <v>0.08162918590190316</v>
+        <v>0.03562083679940287</v>
       </c>
       <c r="E12">
-        <v>0.02893269258930964</v>
+        <v>0.0814708664268089</v>
       </c>
       <c r="F12">
-        <v>0.6340734965009887</v>
+        <v>0.6567815295646255</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1669694159470936</v>
+        <v>0.5151380844476385</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5607304359881766</v>
+        <v>0.2850233025405799</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.588306158404293</v>
+        <v>2.148271556569227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.807949664431192</v>
+        <v>2.071266143728508</v>
       </c>
       <c r="C13">
-        <v>0.8616739585198445</v>
+        <v>0.3516367524358657</v>
       </c>
       <c r="D13">
-        <v>0.0812537558493247</v>
+        <v>0.03549760913796263</v>
       </c>
       <c r="E13">
-        <v>0.02893857460381533</v>
+        <v>0.08152147846121238</v>
       </c>
       <c r="F13">
-        <v>0.6311848625724252</v>
+        <v>0.6565537250154563</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1670703390076369</v>
+        <v>0.5156277819944535</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.55770372951703</v>
+        <v>0.284250450436474</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.582121713503739</v>
+        <v>2.148511006604338</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.705339927854027</v>
+        <v>2.039929732063626</v>
       </c>
       <c r="C14">
-        <v>0.8485505325614611</v>
+        <v>0.3473958520712586</v>
       </c>
       <c r="D14">
-        <v>0.08002989904588276</v>
+        <v>0.03509557861637091</v>
       </c>
       <c r="E14">
-        <v>0.02896114101672964</v>
+        <v>0.08168791061572378</v>
       </c>
       <c r="F14">
-        <v>0.621826132211595</v>
+        <v>0.6558259228511076</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.167441477779402</v>
+        <v>0.5172373460159214</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5478494155596678</v>
+        <v>0.2817326409034564</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.562152282895426</v>
+        <v>2.149343143416644</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.642538182905582</v>
+        <v>2.020731685121461</v>
       </c>
       <c r="C15">
-        <v>0.8405165968680137</v>
+        <v>0.3447968562198866</v>
       </c>
       <c r="D15">
-        <v>0.07928062518325873</v>
+        <v>0.03484920225250931</v>
       </c>
       <c r="E15">
-        <v>0.0289775405394348</v>
+        <v>0.08179091180542386</v>
       </c>
       <c r="F15">
-        <v>0.616140451118099</v>
+        <v>0.6553917338313582</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.167700726674699</v>
+        <v>0.5182328918214942</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5418257765115868</v>
+        <v>0.2801924317597582</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.55007168290399</v>
+        <v>2.149892201169649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.283356851230849</v>
+        <v>1.910662131980985</v>
       </c>
       <c r="C16">
-        <v>0.7945414063239866</v>
+        <v>0.3298830608542858</v>
       </c>
       <c r="D16">
-        <v>0.0749920801516879</v>
+        <v>0.03343548846573441</v>
       </c>
       <c r="E16">
-        <v>0.02911007392987308</v>
+        <v>0.08239736100688333</v>
       </c>
       <c r="F16">
-        <v>0.5842503428618784</v>
+        <v>0.6530812815730513</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1696608817348704</v>
+        <v>0.5240855206254906</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5074883006591904</v>
+        <v>0.2713971722761102</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.483081721142412</v>
+        <v>2.153640828946038</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.063590156116334</v>
+        <v>1.843092332736603</v>
       </c>
       <c r="C17">
-        <v>0.7663884091076909</v>
+        <v>0.320716367833171</v>
       </c>
       <c r="D17">
-        <v>0.07236535958249846</v>
+        <v>0.0325666148807926</v>
       </c>
       <c r="E17">
-        <v>0.02922478245620752</v>
+        <v>0.08278383987983418</v>
       </c>
       <c r="F17">
-        <v>0.565277787224673</v>
+        <v>0.6518221918253104</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1712712676600745</v>
+        <v>0.5278073509043821</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4865762070668183</v>
+        <v>0.2660293499349393</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.44389981902566</v>
+        <v>2.156476834326668</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.937378287538365</v>
+        <v>1.804211924772517</v>
       </c>
       <c r="C18">
-        <v>0.750212154541714</v>
+        <v>0.3154375875065227</v>
       </c>
       <c r="D18">
-        <v>0.07085587272506189</v>
+        <v>0.03206628248371857</v>
       </c>
       <c r="E18">
-        <v>0.02930264979000796</v>
+        <v>0.08301143743210559</v>
       </c>
       <c r="F18">
-        <v>0.5545721826870533</v>
+        <v>0.6511560611011902</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1723414430966095</v>
+        <v>0.5299962560730229</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4746007598253357</v>
+        <v>0.2629521599107676</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.422034697659285</v>
+        <v>2.158304732819488</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.894676201289826</v>
+        <v>1.79104500166568</v>
       </c>
       <c r="C19">
-        <v>0.744737798555775</v>
+        <v>0.3136492049085859</v>
       </c>
       <c r="D19">
-        <v>0.07034499740571221</v>
+        <v>0.03189678007412056</v>
       </c>
       <c r="E19">
-        <v>0.02933102080765515</v>
+        <v>0.08308940900076855</v>
       </c>
       <c r="F19">
-        <v>0.550982037666266</v>
+        <v>0.6509404828863268</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1727279540672946</v>
+        <v>0.5307456523999576</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4705547941961754</v>
+        <v>0.261912037600041</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.414743865727644</v>
+        <v>2.158957373690669</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.086964353527435</v>
+        <v>1.850286930839275</v>
       </c>
       <c r="C20">
-        <v>0.7693835757822001</v>
+        <v>0.3216928367819776</v>
       </c>
       <c r="D20">
-        <v>0.07264483615568906</v>
+        <v>0.0326591681581192</v>
       </c>
       <c r="E20">
-        <v>0.02921133243437168</v>
+        <v>0.08274214943283376</v>
       </c>
       <c r="F20">
-        <v>0.5672758070114909</v>
+        <v>0.6519502121555192</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1710848117627783</v>
+        <v>0.5274061643684114</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4887968096090276</v>
+        <v>0.2665997046959347</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.448000614119962</v>
+        <v>2.156154569603189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.735468415822879</v>
+        <v>2.049134748026574</v>
       </c>
       <c r="C21">
-        <v>0.8524042408235175</v>
+        <v>0.3486417834199926</v>
       </c>
       <c r="D21">
-        <v>0.08038929636996528</v>
+        <v>0.03521369001565233</v>
       </c>
       <c r="E21">
-        <v>0.02895397338772021</v>
+        <v>0.08163880523213329</v>
       </c>
       <c r="F21">
-        <v>0.6245652011807294</v>
+        <v>0.6560372756996316</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1673257783880899</v>
+        <v>0.5167625682729877</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5507412584503726</v>
+        <v>0.2824717613930687</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.567986074774495</v>
+        <v>2.149090521954292</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.161469951061349</v>
+        <v>2.178934613860577</v>
       </c>
       <c r="C22">
-        <v>0.9068601641137093</v>
+        <v>0.366195615560116</v>
       </c>
       <c r="D22">
-        <v>0.08546693877816836</v>
+        <v>0.0368778285526048</v>
       </c>
       <c r="E22">
-        <v>0.02890005942520268</v>
+        <v>0.08096499492719644</v>
       </c>
       <c r="F22">
-        <v>0.6640742055302127</v>
+        <v>0.6592277865956504</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1662811727927149</v>
+        <v>0.5102376349358835</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5917714482056908</v>
+        <v>0.2929356403276842</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.653085162887891</v>
+        <v>2.14623388967749</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.933883446011464</v>
+        <v>2.109673261190039</v>
       </c>
       <c r="C23">
-        <v>0.8777754606908559</v>
+        <v>0.3568323061825538</v>
       </c>
       <c r="D23">
-        <v>0.08275520312417228</v>
+        <v>0.03599015070271605</v>
       </c>
       <c r="E23">
-        <v>0.02891795234183014</v>
+        <v>0.08132029094270621</v>
       </c>
       <c r="F23">
-        <v>0.6427869722752604</v>
+        <v>0.6574773157259415</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1667028673650748</v>
+        <v>0.5136805567428446</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5698189906696314</v>
+        <v>0.2873426131604475</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.607019056095766</v>
+        <v>2.147597064933734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.076396463497133</v>
+        <v>1.84703435761935</v>
       </c>
       <c r="C24">
-        <v>0.768029432556915</v>
+        <v>0.3212514023267659</v>
       </c>
       <c r="D24">
-        <v>0.07251848281932638</v>
+        <v>0.03261732732742217</v>
       </c>
       <c r="E24">
-        <v>0.02921737615238307</v>
+        <v>0.08276098084618333</v>
       </c>
       <c r="F24">
-        <v>0.5663718755952374</v>
+        <v>0.6518921543430238</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.171168660285467</v>
+        <v>0.5275873876430559</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4877927290328756</v>
+        <v>0.2663418197601715</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.446144593143856</v>
+        <v>2.15629965055615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.158580188895712</v>
+        <v>1.563130837478639</v>
       </c>
       <c r="C25">
-        <v>0.6502615604962614</v>
+        <v>0.2826305307322912</v>
       </c>
       <c r="D25">
-        <v>0.06152542617846279</v>
+        <v>0.02895717090262195</v>
       </c>
       <c r="E25">
-        <v>0.02999072291096816</v>
+        <v>0.08451779714566143</v>
       </c>
       <c r="F25">
-        <v>0.4917454422568923</v>
+        <v>0.6480861064782246</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1814238618118971</v>
+        <v>0.5444300298351301</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4012884453731687</v>
+        <v>0.2440808119951896</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.297933147908878</v>
+        <v>2.173201939449029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_172/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.353609635284556</v>
+        <v>3.48659471187824</v>
       </c>
       <c r="C2">
-        <v>0.2539931740461725</v>
+        <v>0.5638222565888498</v>
       </c>
       <c r="D2">
-        <v>0.0262438978229369</v>
+        <v>0.05345118693885098</v>
       </c>
       <c r="E2">
-        <v>0.0859856760044746</v>
+        <v>0.0309065817237224</v>
       </c>
       <c r="F2">
-        <v>0.6471769034444748</v>
+        <v>0.442410228189253</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5584063081530779</v>
+        <v>0.1930230276448803</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2280261146695466</v>
+        <v>0.3389081660075419</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.192062247822236</v>
+        <v>1.207163823792996</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.211335594582863</v>
+        <v>3.032519539530142</v>
       </c>
       <c r="C3">
-        <v>0.234463823412284</v>
+        <v>0.5053003070605087</v>
       </c>
       <c r="D3">
-        <v>0.02439403277239194</v>
+        <v>0.04798191167020605</v>
       </c>
       <c r="E3">
-        <v>0.08708918564981616</v>
+        <v>0.03172467582137717</v>
       </c>
       <c r="F3">
-        <v>0.647734377875544</v>
+        <v>0.4119795321494522</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5688561124922522</v>
+        <v>0.2031239414011239</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2173551475487585</v>
+        <v>0.2972777298549403</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.208821801407851</v>
+        <v>1.155555011905989</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.123850794926682</v>
+        <v>2.754069101210121</v>
       </c>
       <c r="C4">
-        <v>0.2224143719674885</v>
+        <v>0.4693641167870339</v>
       </c>
       <c r="D4">
-        <v>0.02325291009245234</v>
+        <v>0.04462228099333032</v>
       </c>
       <c r="E4">
-        <v>0.08782035368917374</v>
+        <v>0.03231860097914296</v>
       </c>
       <c r="F4">
-        <v>0.6486532643167564</v>
+        <v>0.3946255151348836</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.575753142022279</v>
+        <v>0.2103435523934962</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2109065978476252</v>
+        <v>0.2719825437449686</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.22106646405939</v>
+        <v>1.128282497340223</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.088170069108514</v>
+        <v>2.640646955172258</v>
       </c>
       <c r="C5">
-        <v>0.2174897871223038</v>
+        <v>0.4547147531351925</v>
       </c>
       <c r="D5">
-        <v>0.02278659348616685</v>
+        <v>0.04325247332666748</v>
       </c>
       <c r="E5">
-        <v>0.08813178773652641</v>
+        <v>0.03258285227396129</v>
       </c>
       <c r="F5">
-        <v>0.649172405027997</v>
+        <v>0.3878670729170395</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5786843933572214</v>
+        <v>0.213529180356705</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2083048654136803</v>
+        <v>0.2617343409822723</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.226546576890826</v>
+        <v>1.118213182701254</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.082243568008209</v>
+        <v>2.621815110472255</v>
       </c>
       <c r="C6">
-        <v>0.2166712077235786</v>
+        <v>0.452281814412089</v>
       </c>
       <c r="D6">
-        <v>0.02270908442063302</v>
+        <v>0.04302496369118103</v>
       </c>
       <c r="E6">
-        <v>0.08818431501452118</v>
+        <v>0.03262805004109559</v>
       </c>
       <c r="F6">
-        <v>0.6492673378069185</v>
+        <v>0.3867631739891877</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5791784054670046</v>
+        <v>0.2140725147290432</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2078744289042334</v>
+        <v>0.2600360456692528</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.227486127074968</v>
+        <v>1.116602402104661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.123369710529289</v>
+        <v>2.75253930460633</v>
       </c>
       <c r="C7">
-        <v>0.2223480148875012</v>
+        <v>0.4691665762092043</v>
       </c>
       <c r="D7">
-        <v>0.02324662640304354</v>
+        <v>0.04460381070269648</v>
       </c>
       <c r="E7">
-        <v>0.08782449923345137</v>
+        <v>0.03232207583755642</v>
       </c>
       <c r="F7">
-        <v>0.6486596802007867</v>
+        <v>0.3945331263519307</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5757921857016122</v>
+        <v>0.2103855444635094</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2108714041644646</v>
+        <v>0.2718440999160094</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.221138386974729</v>
+        <v>1.128142554632234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.30458138523602</v>
+        <v>3.329930998669568</v>
       </c>
       <c r="C8">
-        <v>0.2472717602742307</v>
+        <v>0.5436419638336361</v>
       </c>
       <c r="D8">
-        <v>0.02560718275297802</v>
+        <v>0.05156545902183041</v>
       </c>
       <c r="E8">
-        <v>0.08635503779971909</v>
+        <v>0.03116914447510499</v>
       </c>
       <c r="F8">
-        <v>0.6472492646653762</v>
+        <v>0.4316285082455664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5619094616711102</v>
+        <v>0.1962870175003033</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2243253383029042</v>
+        <v>0.3244943474476969</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.197434682087447</v>
+        <v>1.188411939291115</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.658842196621094</v>
+        <v>4.46701147068535</v>
       </c>
       <c r="C9">
-        <v>0.2956717304811605</v>
+        <v>0.6898736508253762</v>
       </c>
       <c r="D9">
-        <v>0.03019299205465131</v>
+        <v>0.06522397821524351</v>
       </c>
       <c r="E9">
-        <v>0.08389892303558888</v>
+        <v>0.02967379009137439</v>
       </c>
       <c r="F9">
-        <v>0.6490731178696763</v>
+        <v>0.5159420443957075</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5385112720372263</v>
+        <v>0.1773005039679951</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2515272424181489</v>
+        <v>0.4301992535608719</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.166508631736832</v>
+        <v>1.344789612703266</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.918370087783671</v>
+        <v>5.30846128055714</v>
       </c>
       <c r="C10">
-        <v>0.3309281768760854</v>
+        <v>0.7977562695083975</v>
       </c>
       <c r="D10">
-        <v>0.0335345537012941</v>
+        <v>0.07529200193988572</v>
       </c>
       <c r="E10">
-        <v>0.08235398010184447</v>
+        <v>0.02909862364597871</v>
       </c>
       <c r="F10">
-        <v>0.653232828331177</v>
+        <v>0.5864440155764967</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5236673728869725</v>
+        <v>0.1694970552205</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2720110635472963</v>
+        <v>0.509881900868649</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.153343904008125</v>
+        <v>1.487645912669421</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.036258689377291</v>
+        <v>5.693327408536334</v>
       </c>
       <c r="C11">
-        <v>0.346898922706032</v>
+        <v>0.8470139334690714</v>
       </c>
       <c r="D11">
-        <v>0.03504847107448938</v>
+        <v>0.07988659319231317</v>
       </c>
       <c r="E11">
-        <v>0.08170754492397592</v>
+        <v>0.02896412505306323</v>
       </c>
       <c r="F11">
-        <v>0.6557422041478276</v>
+        <v>0.6207361006811567</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5174271531601526</v>
+        <v>0.1674891734306456</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2814379857903049</v>
+        <v>0.5466967824775679</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.149445806838742</v>
+        <v>1.559833197811997</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.080873502717282</v>
+        <v>5.839433628265738</v>
       </c>
       <c r="C12">
-        <v>0.3529366265018723</v>
+        <v>0.8656999140567052</v>
       </c>
       <c r="D12">
-        <v>0.03562083679940287</v>
+        <v>0.08162918590172552</v>
       </c>
       <c r="E12">
-        <v>0.0814708664268089</v>
+        <v>0.02893269258933806</v>
       </c>
       <c r="F12">
-        <v>0.6567815295646255</v>
+        <v>0.6340734965010029</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5151380844476385</v>
+        <v>0.1669694159470936</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2850233025405799</v>
+        <v>0.5607304359881624</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.148271556569227</v>
+        <v>1.588306158404265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.071266143728508</v>
+        <v>5.807949664431135</v>
       </c>
       <c r="C13">
-        <v>0.3516367524358657</v>
+        <v>0.8616739585199014</v>
       </c>
       <c r="D13">
-        <v>0.03549760913796263</v>
+        <v>0.08125375584926076</v>
       </c>
       <c r="E13">
-        <v>0.08152147846121238</v>
+        <v>0.02893857460381533</v>
       </c>
       <c r="F13">
-        <v>0.6565537250154563</v>
+        <v>0.6311848625724252</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5156277819944535</v>
+        <v>0.167070339007644</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.284250450436474</v>
+        <v>0.55770372951703</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.148511006604338</v>
+        <v>1.582121713503625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.039929732063626</v>
+        <v>5.705339927854311</v>
       </c>
       <c r="C14">
-        <v>0.3473958520712586</v>
+        <v>0.848550532561859</v>
       </c>
       <c r="D14">
-        <v>0.03509557861637091</v>
+        <v>0.08002989904591828</v>
       </c>
       <c r="E14">
-        <v>0.08168791061572378</v>
+        <v>0.02896114101674385</v>
       </c>
       <c r="F14">
-        <v>0.6558259228511076</v>
+        <v>0.6218261322115808</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5172373460159214</v>
+        <v>0.1674414777793878</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2817326409034564</v>
+        <v>0.5478494155596394</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.149343143416644</v>
+        <v>1.562152282895426</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.020731685121461</v>
+        <v>5.642538182905639</v>
       </c>
       <c r="C15">
-        <v>0.3447968562198866</v>
+        <v>0.8405165968680137</v>
       </c>
       <c r="D15">
-        <v>0.03484920225250931</v>
+        <v>0.07928062518313794</v>
       </c>
       <c r="E15">
-        <v>0.08179091180542386</v>
+        <v>0.02897754053943125</v>
       </c>
       <c r="F15">
-        <v>0.6553917338313582</v>
+        <v>0.6161404511181132</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5182328918214942</v>
+        <v>0.1677007266747133</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2801924317597582</v>
+        <v>0.5418257765115868</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.149892201169649</v>
+        <v>1.550071682904047</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.910662131980985</v>
+        <v>5.283356851230792</v>
       </c>
       <c r="C16">
-        <v>0.3298830608542858</v>
+        <v>0.7945414063237592</v>
       </c>
       <c r="D16">
-        <v>0.03343548846573441</v>
+        <v>0.07499208015179448</v>
       </c>
       <c r="E16">
-        <v>0.08239736100688333</v>
+        <v>0.02911007392987131</v>
       </c>
       <c r="F16">
-        <v>0.6530812815730513</v>
+        <v>0.5842503428618784</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5240855206254906</v>
+        <v>0.1696608817348597</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2713971722761102</v>
+        <v>0.507488300659162</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.153640828946038</v>
+        <v>1.483081721142469</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.843092332736603</v>
+        <v>5.063590156116049</v>
       </c>
       <c r="C17">
-        <v>0.320716367833171</v>
+        <v>0.7663884091079183</v>
       </c>
       <c r="D17">
-        <v>0.0325666148807926</v>
+        <v>0.07236535958245582</v>
       </c>
       <c r="E17">
-        <v>0.08278383987983418</v>
+        <v>0.02922478245619686</v>
       </c>
       <c r="F17">
-        <v>0.6518221918253104</v>
+        <v>0.5652777872246659</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5278073509043821</v>
+        <v>0.1712712676600567</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2660293499349393</v>
+        <v>0.4865762070667614</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.156476834326668</v>
+        <v>1.443899819025546</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.804211924772517</v>
+        <v>4.937378287538479</v>
       </c>
       <c r="C18">
-        <v>0.3154375875065227</v>
+        <v>0.7502121545419413</v>
       </c>
       <c r="D18">
-        <v>0.03206628248371857</v>
+        <v>0.07085587272506189</v>
       </c>
       <c r="E18">
-        <v>0.08301143743210559</v>
+        <v>0.02930264978999375</v>
       </c>
       <c r="F18">
-        <v>0.6511560611011902</v>
+        <v>0.5545721826870533</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5299962560730229</v>
+        <v>0.1723414430966237</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2629521599107676</v>
+        <v>0.4746007598253925</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.158304732819488</v>
+        <v>1.422034697659257</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.79104500166568</v>
+        <v>4.894676201289712</v>
       </c>
       <c r="C19">
-        <v>0.3136492049085859</v>
+        <v>0.7447377985557466</v>
       </c>
       <c r="D19">
-        <v>0.03189678007412056</v>
+        <v>0.07034499740582589</v>
       </c>
       <c r="E19">
-        <v>0.08308940900076855</v>
+        <v>0.02933102080766403</v>
       </c>
       <c r="F19">
-        <v>0.6509404828863268</v>
+        <v>0.5509820376662731</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5307456523999576</v>
+        <v>0.1727279540672768</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.261912037600041</v>
+        <v>0.4705547941962323</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.158957373690669</v>
+        <v>1.414743865727729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.850286930839275</v>
+        <v>5.086964353527662</v>
       </c>
       <c r="C20">
-        <v>0.3216928367819776</v>
+        <v>0.7693835757822569</v>
       </c>
       <c r="D20">
-        <v>0.0326591681581192</v>
+        <v>0.07264483615585959</v>
       </c>
       <c r="E20">
-        <v>0.08274214943283376</v>
+        <v>0.02921133243438589</v>
       </c>
       <c r="F20">
-        <v>0.6519502121555192</v>
+        <v>0.567275807011498</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5274061643684114</v>
+        <v>0.1710848117627961</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2665997046959347</v>
+        <v>0.4887968096089992</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.156154569603189</v>
+        <v>1.448000614119991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.049134748026574</v>
+        <v>5.735468415823163</v>
       </c>
       <c r="C21">
-        <v>0.3486417834199926</v>
+        <v>0.8524042408240007</v>
       </c>
       <c r="D21">
-        <v>0.03521369001565233</v>
+        <v>0.08038929637001502</v>
       </c>
       <c r="E21">
-        <v>0.08163880523213329</v>
+        <v>0.02895397338771666</v>
       </c>
       <c r="F21">
-        <v>0.6560372756996316</v>
+        <v>0.6245652011807437</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5167625682729877</v>
+        <v>0.1673257783880899</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2824717613930687</v>
+        <v>0.5507412584503868</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.149090521954292</v>
+        <v>1.567986074774439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.178934613860577</v>
+        <v>6.161469951061292</v>
       </c>
       <c r="C22">
-        <v>0.366195615560116</v>
+        <v>0.9068601641139082</v>
       </c>
       <c r="D22">
-        <v>0.0368778285526048</v>
+        <v>0.08546693877805467</v>
       </c>
       <c r="E22">
-        <v>0.08096499492719644</v>
+        <v>0.0289000594252169</v>
       </c>
       <c r="F22">
-        <v>0.6592277865956504</v>
+        <v>0.6640742055302269</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5102376349358835</v>
+        <v>0.1662811727927291</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2929356403276842</v>
+        <v>0.591771448205634</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.14623388967749</v>
+        <v>1.653085162887919</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.109673261190039</v>
+        <v>5.933883446011635</v>
       </c>
       <c r="C23">
-        <v>0.3568323061825538</v>
+        <v>0.8777754606909127</v>
       </c>
       <c r="D23">
-        <v>0.03599015070271605</v>
+        <v>0.08275520312429308</v>
       </c>
       <c r="E23">
-        <v>0.08132029094270621</v>
+        <v>0.02891795234183192</v>
       </c>
       <c r="F23">
-        <v>0.6574773157259415</v>
+        <v>0.6427869722752888</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5136805567428446</v>
+        <v>0.1667028673650712</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2873426131604475</v>
+        <v>0.569818990669674</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.147597064933734</v>
+        <v>1.607019056095794</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.84703435761935</v>
+        <v>5.076396463496735</v>
       </c>
       <c r="C24">
-        <v>0.3212514023267659</v>
+        <v>0.768029432556915</v>
       </c>
       <c r="D24">
-        <v>0.03261732732742217</v>
+        <v>0.07251848281931927</v>
       </c>
       <c r="E24">
-        <v>0.08276098084618333</v>
+        <v>0.02921737615236708</v>
       </c>
       <c r="F24">
-        <v>0.6518921543430238</v>
+        <v>0.5663718755952374</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5275873876430559</v>
+        <v>0.1711686602854634</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2663418197601715</v>
+        <v>0.4877927290329325</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.15629965055615</v>
+        <v>1.446144593143771</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.563130837478639</v>
+        <v>4.158580188895655</v>
       </c>
       <c r="C25">
-        <v>0.2826305307322912</v>
+        <v>0.6502615604961477</v>
       </c>
       <c r="D25">
-        <v>0.02895717090262195</v>
+        <v>0.0615254261784699</v>
       </c>
       <c r="E25">
-        <v>0.08451779714566143</v>
+        <v>0.0299907229109948</v>
       </c>
       <c r="F25">
-        <v>0.6480861064782246</v>
+        <v>0.4917454422568852</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5444300298351301</v>
+        <v>0.1814238618118935</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2440808119951896</v>
+        <v>0.4012884453731402</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.173201939449029</v>
+        <v>1.297933147908793</v>
       </c>
     </row>
   </sheetData>
